--- a/Statistics/Test.xlsx
+++ b/Statistics/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Statistics\Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0571429-E688-40A5-9BFC-66943C3FE7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B432CC-CADD-4E9C-B49B-DFBF659FBEDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7590" yWindow="7635" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{35B7434A-E06F-4079-9972-2FC1CA1C8D79}"/>
+    <workbookView xWindow="-28920" yWindow="-1410" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{35B7434A-E06F-4079-9972-2FC1CA1C8D79}"/>
   </bookViews>
   <sheets>
     <sheet name="WB-METADATA" sheetId="4" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
     <sheet name="WorldBankCOUntryCodes" sheetId="3" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9801" uniqueCount="4904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9803" uniqueCount="4905">
   <si>
     <t>ODA/NRU_LP/VALUE</t>
   </si>
@@ -14750,13 +14753,16 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>Column2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -14767,6 +14773,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -14798,7 +14810,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -14808,21 +14820,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -14852,6 +14856,21 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -14865,6 +14884,19 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="cbg_fips_codes"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{043A8E2B-A9F9-4FB8-8F8E-2C457B363400}" name="Table1" displayName="Table1" ref="A1:I57" totalsRowShown="0">
   <autoFilter ref="A1:I57" xr:uid="{C06FE938-0271-4490-9981-955242E5F6B9}"/>
@@ -14872,12 +14904,12 @@
     <tableColumn id="3" xr3:uid="{EB6BBEC8-577F-4752-9F98-264C08730B67}" name="Code"/>
     <tableColumn id="6" xr3:uid="{05E11487-6AB3-403D-B2F5-204476430876}" name="Name"/>
     <tableColumn id="2" xr3:uid="{70A21495-ABA8-464C-8161-23A649E20CDF}" name="Abbr"/>
-    <tableColumn id="11" xr3:uid="{858971D3-B15B-411A-BC7A-DBDDD87CE84B}" name="Column5" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{09643B89-1EDC-4B31-BD0E-92756E381CD4}" name="Column4" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{DC8C7923-4DE1-42DB-B099-09FC97819129}" name="Column3" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{858971D3-B15B-411A-BC7A-DBDDD87CE84B}" name="Column5" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{09643B89-1EDC-4B31-BD0E-92756E381CD4}" name="Column4" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{DC8C7923-4DE1-42DB-B099-09FC97819129}" name="Column3" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{8DD97262-A495-46D2-9643-84B96DA5583E}" name="Division"/>
     <tableColumn id="5" xr3:uid="{DE281140-60F6-4D85-8C41-1EEDAF411DB8}" name="Region"/>
-    <tableColumn id="7" xr3:uid="{A86DCFC2-1981-4041-9576-4FAA02E15306}" name="Column1" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{A86DCFC2-1981-4041-9576-4FAA02E15306}" name="Column1" dataDxfId="6">
       <calculatedColumnFormula>"( " &amp; _xlfn.TEXTJOIN(", ",FALSE,Table1[[#This Row],[Column5]:[Region]]) &amp; " ),"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14886,12 +14918,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC89EE90-9367-45EF-B54E-016BEAEB7249}" name="Table2" displayName="Table2" ref="L1:V60" totalsRowShown="0">
-  <autoFilter ref="L1:V60" xr:uid="{2C67BDC8-CDC4-4808-8E1A-FA9F18AD3000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CC89EE90-9367-45EF-B54E-016BEAEB7249}" name="Table2" displayName="Table2" ref="L1:X60" totalsRowShown="0">
+  <autoFilter ref="L1:X60" xr:uid="{2C67BDC8-CDC4-4808-8E1A-FA9F18AD3000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M2:V51">
     <sortCondition ref="O1:O51"/>
   </sortState>
-  <tableColumns count="11">
+  <tableColumns count="13">
     <tableColumn id="11" xr3:uid="{2EB0784B-8452-44CD-A811-1DB9AB8CD0F4}" name="Id"/>
     <tableColumn id="1" xr3:uid="{05B87369-C932-4BDB-8EE7-85A79813D182}" name="STATE_ID"/>
     <tableColumn id="2" xr3:uid="{4C6216EC-64A0-4A38-9BE6-4A32394E1832}" name="DIVISION_ID"/>
@@ -14899,13 +14931,21 @@
     <tableColumn id="4" xr3:uid="{C2BFB57A-DE27-4966-AFDE-E40AD4EFE005}" name="STATE_CODE"/>
     <tableColumn id="5" xr3:uid="{8BED440B-52C7-41D6-B6C8-442020087114}" name="STATE_ABBR"/>
     <tableColumn id="6" xr3:uid="{695D6D99-7324-404F-B2A2-D6FED5203943}" name="STATE_POSTAL_ABBR"/>
-    <tableColumn id="7" xr3:uid="{FB40153B-6541-4F98-9D26-3BBFBC456A93}" name="STATE_FIPS_CODE"/>
+    <tableColumn id="7" xr3:uid="{FB40153B-6541-4F98-9D26-3BBFBC456A93}" name="STATE_FIPS_CODE">
+      <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="8" xr3:uid="{A519D89A-2349-49AB-9A62-52A0E9AF23E1}" name="STATE_PUB_FREQ_MONTHS"/>
-    <tableColumn id="9" xr3:uid="{51EED2F3-B6DD-4C38-B954-699DD171F71A}" name="Div" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{51EED2F3-B6DD-4C38-B954-699DD171F71A}" name="Div" dataDxfId="5">
       <calculatedColumnFormula>VLOOKUP(Table2[[#This Row],[STATE_NAME]],Table1[[Name]:[Region]],6,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{CA157DF8-318F-4D35-953E-6A657A9E29D4}" name="Column1" dataDxfId="0">
-      <calculatedColumnFormula>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{CA157DF8-318F-4D35-953E-6A657A9E29D4}" name="Column1" dataDxfId="2">
+      <calculatedColumnFormula>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{B50EC7DF-7369-4816-AC3E-9A51638FECA0}" name="Column2" dataDxfId="1">
+      <calculatedColumnFormula>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{7F403A7E-95A0-4E62-9214-830DDEC7C9EF}" name="Column3" dataDxfId="0">
+      <calculatedColumnFormula>Table2[[#This Row],[Id]]-L1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -30508,10 +30548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E7EB06-A318-4891-A900-B73586DEDB55}">
-  <dimension ref="A1:AC60"/>
+  <dimension ref="A1:AE60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7:O20"/>
+    <sheetView tabSelected="1" topLeftCell="L10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30529,14 +30569,18 @@
     <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="13.42578125" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="19" customWidth="1"/>
-    <col min="22" max="22" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="33" width="19" customWidth="1"/>
+    <col min="22" max="22" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.85546875" customWidth="1"/>
+    <col min="25" max="35" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4725</v>
       </c>
@@ -30597,20 +30641,26 @@
       <c r="V1" t="s">
         <v>4763</v>
       </c>
+      <c r="W1" t="s">
+        <v>4904</v>
+      </c>
       <c r="X1" t="s">
+        <v>4765</v>
+      </c>
+      <c r="Z1" t="s">
         <v>4726</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>4640</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>4740</v>
       </c>
       <c r="AB1" t="s">
         <v>4740</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD1" t="s">
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4767</v>
       </c>
@@ -30640,7 +30690,7 @@
         <v>( 3, "Alabama", "AL", 6, 3 ),</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>2</v>
@@ -30661,6 +30711,7 @@
         <v>4620</v>
       </c>
       <c r="S2">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>1</v>
       </c>
       <c r="T2">
@@ -30671,26 +30722,34 @@
         <v>6</v>
       </c>
       <c r="V2" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 1, "Alabama", "AL" ),</v>
-      </c>
-      <c r="X2" t="s">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 0, "Alabama", "AL", "AL", 1),</v>
+      </c>
+      <c r="W2" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Alabama =&gt; All50States[0];</v>
+      </c>
+      <c r="X2" s="7" t="e">
+        <f>Table2[[#This Row],[Id]]-L1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z2" t="s">
         <v>4727</v>
       </c>
-      <c r="Y2">
+      <c r="AA2">
         <v>0</v>
       </c>
-      <c r="Z2">
+      <c r="AB2">
         <v>0</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>4741</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4768</v>
       </c>
@@ -30720,7 +30779,7 @@
         <v>( 4, "Arizona", "AZ", 8, 4 ),</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -30741,6 +30800,7 @@
         <v>4618</v>
       </c>
       <c r="S3">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>2</v>
       </c>
       <c r="T3">
@@ -30751,26 +30811,34 @@
         <v>9</v>
       </c>
       <c r="V3" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 2, "Alaska", "AK" ),</v>
-      </c>
-      <c r="X3" t="s">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 1, "Alaska", "AK", "AK", 2),</v>
+      </c>
+      <c r="W3" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Alaska =&gt; All50States[1];</v>
+      </c>
+      <c r="X3" s="7">
+        <f>Table2[[#This Row],[Id]]-L2</f>
+        <v>1</v>
+      </c>
+      <c r="Z3" t="s">
         <v>4728</v>
       </c>
-      <c r="Y3">
+      <c r="AA3">
         <v>1</v>
       </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>1</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>4731</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4767</v>
       </c>
@@ -30800,7 +30868,7 @@
         <v>( 3, "Arkansas", "AR", 7, 3 ),</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M4">
         <v>5</v>
@@ -30821,6 +30889,7 @@
         <v>4623</v>
       </c>
       <c r="S4">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>4</v>
       </c>
       <c r="T4">
@@ -30831,26 +30900,34 @@
         <v>8</v>
       </c>
       <c r="V4" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 3, "Arizona", "AZ" ),</v>
-      </c>
-      <c r="X4" t="s">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 2, "Arizona", "AZ", "AZ", 4),</v>
+      </c>
+      <c r="W4" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Arizona =&gt; All50States[2];</v>
+      </c>
+      <c r="X4" s="7">
+        <f>Table2[[#This Row],[Id]]-L3</f>
+        <v>1</v>
+      </c>
+      <c r="Z4" t="s">
         <v>4729</v>
       </c>
-      <c r="Y4">
+      <c r="AA4">
         <v>2</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>1</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>4742</v>
       </c>
-      <c r="AC4">
+      <c r="AE4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4768</v>
       </c>
@@ -30880,7 +30957,7 @@
         <v>( 4, "California", "CA", 9, 4 ),</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -30901,6 +30978,7 @@
         <v>4625</v>
       </c>
       <c r="S5">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>5</v>
       </c>
       <c r="T5">
@@ -30911,26 +30989,34 @@
         <v>7</v>
       </c>
       <c r="V5" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 4, "Arkansas", "AR" ),</v>
-      </c>
-      <c r="X5" t="s">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 3, "Arkansas", "AR", "AR", 5),</v>
+      </c>
+      <c r="W5" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Arkansas =&gt; All50States[3];</v>
+      </c>
+      <c r="X5" s="7">
+        <f>Table2[[#This Row],[Id]]-L4</f>
+        <v>1</v>
+      </c>
+      <c r="Z5" t="s">
         <v>4731</v>
       </c>
-      <c r="Y5">
+      <c r="AA5">
         <v>3</v>
       </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>2</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>4743</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4768</v>
       </c>
@@ -30960,7 +31046,7 @@
         <v>( 4, "Colorado", "CO", 8, 4 ),</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6">
         <v>6</v>
@@ -30981,6 +31067,7 @@
         <v>4627</v>
       </c>
       <c r="S6">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>6</v>
       </c>
       <c r="T6">
@@ -30991,20 +31078,28 @@
         <v>9</v>
       </c>
       <c r="V6" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 5, "California", "CA" ),</v>
-      </c>
-      <c r="X6" t="s">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 4, "California", "CA", "CA", 6),</v>
+      </c>
+      <c r="W6" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State California =&gt; All50States[4];</v>
+      </c>
+      <c r="X6" s="7">
+        <f>Table2[[#This Row],[Id]]-L5</f>
+        <v>1</v>
+      </c>
+      <c r="Z6" t="s">
         <v>4732</v>
       </c>
-      <c r="Y6">
+      <c r="AA6">
         <v>4</v>
       </c>
-      <c r="Z6">
+      <c r="AB6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4769</v>
       </c>
@@ -31034,7 +31129,7 @@
         <v>( 1, "Connecticut", "CT", 1, 1 ),</v>
       </c>
       <c r="L7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M7">
         <v>7</v>
@@ -31055,6 +31150,7 @@
         <v>4629</v>
       </c>
       <c r="S7">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>8</v>
       </c>
       <c r="T7">
@@ -31065,20 +31161,28 @@
         <v>8</v>
       </c>
       <c r="V7" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 6, "Colorado", "CO" ),</v>
-      </c>
-      <c r="X7" t="s">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 5, "Colorado", "CO", "CO", 8),</v>
+      </c>
+      <c r="W7" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Colorado =&gt; All50States[5];</v>
+      </c>
+      <c r="X7" s="7">
+        <f>Table2[[#This Row],[Id]]-L6</f>
+        <v>1</v>
+      </c>
+      <c r="Z7" t="s">
         <v>4733</v>
       </c>
-      <c r="Y7">
+      <c r="AA7">
         <v>5</v>
       </c>
-      <c r="Z7">
+      <c r="AB7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4767</v>
       </c>
@@ -31108,7 +31212,7 @@
         <v>( 3, "Delaware", "DE", 5, 3 ),</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M8">
         <v>8</v>
@@ -31129,6 +31233,7 @@
         <v>4631</v>
       </c>
       <c r="S8">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>9</v>
       </c>
       <c r="T8">
@@ -31139,20 +31244,28 @@
         <v>1</v>
       </c>
       <c r="V8" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 7, "Connecticut", "CT" ),</v>
-      </c>
-      <c r="X8" t="s">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 6, "Connecticut", "CT", "CT", 9),</v>
+      </c>
+      <c r="W8" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Connecticut =&gt; All50States[6];</v>
+      </c>
+      <c r="X8" s="7">
+        <f>Table2[[#This Row],[Id]]-L7</f>
+        <v>1</v>
+      </c>
+      <c r="Z8" t="s">
         <v>4736</v>
       </c>
-      <c r="Y8">
+      <c r="AA8">
         <v>6</v>
       </c>
-      <c r="Z8">
+      <c r="AB8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4767</v>
       </c>
@@ -31182,7 +31295,7 @@
         <v>( 3, "Florida", "FL", 5, 3 ),</v>
       </c>
       <c r="L9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M9">
         <v>11</v>
@@ -31203,6 +31316,7 @@
         <v>4633</v>
       </c>
       <c r="S9">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>10</v>
       </c>
       <c r="T9">
@@ -31213,20 +31327,28 @@
         <v>5</v>
       </c>
       <c r="V9" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 8, "Delaware", "DE" ),</v>
-      </c>
-      <c r="X9" t="s">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 7, "Delaware", "DE", "DE", 10),</v>
+      </c>
+      <c r="W9" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Delaware =&gt; All50States[7];</v>
+      </c>
+      <c r="X9" s="7">
+        <f>Table2[[#This Row],[Id]]-L8</f>
+        <v>1</v>
+      </c>
+      <c r="Z9" t="s">
         <v>4737</v>
       </c>
-      <c r="Y9">
+      <c r="AA9">
         <v>7</v>
       </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4767</v>
       </c>
@@ -31256,7 +31378,7 @@
         <v>( 3, "Georgia", "GA", 5, 3 ),</v>
       </c>
       <c r="L10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M10">
         <v>12</v>
@@ -31277,6 +31399,7 @@
         <v>4635</v>
       </c>
       <c r="S10">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>12</v>
       </c>
       <c r="T10">
@@ -31287,20 +31410,28 @@
         <v>5</v>
       </c>
       <c r="V10" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 9, "Florida", "FL" ),</v>
-      </c>
-      <c r="X10" t="s">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 8, "Florida", "FL", "FL", 12),</v>
+      </c>
+      <c r="W10" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Florida =&gt; All50States[8];</v>
+      </c>
+      <c r="X10" s="7">
+        <f>Table2[[#This Row],[Id]]-L9</f>
+        <v>1</v>
+      </c>
+      <c r="Z10" t="s">
         <v>4738</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>8</v>
       </c>
-      <c r="Z10">
+      <c r="AB10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4768</v>
       </c>
@@ -31330,7 +31461,7 @@
         <v>( 4, "Idaho", "ID", 8, 4 ),</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M11">
         <v>13</v>
@@ -31351,6 +31482,7 @@
         <v>4636</v>
       </c>
       <c r="S11">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>13</v>
       </c>
       <c r="T11">
@@ -31361,20 +31493,28 @@
         <v>5</v>
       </c>
       <c r="V11" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 10, "Georgia", "GA" ),</v>
-      </c>
-      <c r="X11" t="s">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 9, "Georgia", "GA", "GA", 13),</v>
+      </c>
+      <c r="W11" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Georgia =&gt; All50States[9];</v>
+      </c>
+      <c r="X11" s="7">
+        <f>Table2[[#This Row],[Id]]-L10</f>
+        <v>1</v>
+      </c>
+      <c r="Z11" t="s">
         <v>4739</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>9</v>
       </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4770</v>
       </c>
@@ -31404,7 +31544,7 @@
         <v>( 2, "Illinois", "IL", 3, 2 ),</v>
       </c>
       <c r="L12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M12">
         <v>15</v>
@@ -31425,6 +31565,7 @@
         <v>4638</v>
       </c>
       <c r="S12">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>15</v>
       </c>
       <c r="T12">
@@ -31435,11 +31576,19 @@
         <v>9</v>
       </c>
       <c r="V12" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 11, "Hawaii", "HI" ),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 10, "Hawaii", "HI", "HI", 15),</v>
+      </c>
+      <c r="W12" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Hawaii =&gt; All50States[10];</v>
+      </c>
+      <c r="X12" s="7">
+        <f>Table2[[#This Row],[Id]]-L11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4770</v>
       </c>
@@ -31469,7 +31618,7 @@
         <v>( 2, "Indiana", "IN", 3, 2 ),</v>
       </c>
       <c r="L13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M13">
         <v>17</v>
@@ -31490,6 +31639,7 @@
         <v>4640</v>
       </c>
       <c r="S13">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>16</v>
       </c>
       <c r="T13">
@@ -31500,11 +31650,19 @@
         <v>8</v>
       </c>
       <c r="V13" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 12, "Idaho", "ID" ),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 11, "Idaho", "ID", "ID", 16),</v>
+      </c>
+      <c r="W13" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Idaho =&gt; All50States[11];</v>
+      </c>
+      <c r="X13" s="7">
+        <f>Table2[[#This Row],[Id]]-L12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4770</v>
       </c>
@@ -31534,7 +31692,7 @@
         <v>( 2, "Iowa", "IA", 4, 2 ),</v>
       </c>
       <c r="L14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M14">
         <v>18</v>
@@ -31555,6 +31713,7 @@
         <v>4642</v>
       </c>
       <c r="S14">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>17</v>
       </c>
       <c r="T14">
@@ -31565,11 +31724,19 @@
         <v>3</v>
       </c>
       <c r="V14" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 13, "Illinois", "IL" ),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 12, "Illinois", "IL", "IL", 17),</v>
+      </c>
+      <c r="W14" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Illinois =&gt; All50States[12];</v>
+      </c>
+      <c r="X14" s="7">
+        <f>Table2[[#This Row],[Id]]-L13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4770</v>
       </c>
@@ -31599,7 +31766,7 @@
         <v>( 2, "Kansas", "KS", 4, 2 ),</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M15">
         <v>19</v>
@@ -31620,6 +31787,7 @@
         <v>4644</v>
       </c>
       <c r="S15">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>18</v>
       </c>
       <c r="T15">
@@ -31630,11 +31798,19 @@
         <v>3</v>
       </c>
       <c r="V15" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 14, "Indiana", "IN" ),</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 13, "Indiana", "IN", "IN", 18),</v>
+      </c>
+      <c r="W15" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Indiana =&gt; All50States[13];</v>
+      </c>
+      <c r="X15" s="7">
+        <f>Table2[[#This Row],[Id]]-L14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4767</v>
       </c>
@@ -31664,7 +31840,7 @@
         <v>( 3, "Kentucky", "KY", 6, 3 ),</v>
       </c>
       <c r="L16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M16">
         <v>16</v>
@@ -31685,6 +31861,7 @@
         <v>4646</v>
       </c>
       <c r="S16">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>19</v>
       </c>
       <c r="T16">
@@ -31695,11 +31872,19 @@
         <v>4</v>
       </c>
       <c r="V16" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 15, "Iowa", "IA" ),</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 14, "Iowa", "IA", "IA", 19),</v>
+      </c>
+      <c r="W16" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Iowa =&gt; All50States[14];</v>
+      </c>
+      <c r="X16" s="7">
+        <f>Table2[[#This Row],[Id]]-L15</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4767</v>
       </c>
@@ -31729,7 +31914,7 @@
         <v>( 3, "Louisiana", "LA", 7, 3 ),</v>
       </c>
       <c r="L17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M17">
         <v>20</v>
@@ -31750,6 +31935,7 @@
         <v>4648</v>
       </c>
       <c r="S17">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>20</v>
       </c>
       <c r="T17">
@@ -31760,11 +31946,19 @@
         <v>4</v>
       </c>
       <c r="V17" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 16, "Kansas", "KS" ),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 15, "Kansas", "KS", "KS", 20),</v>
+      </c>
+      <c r="W17" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Kansas =&gt; All50States[15];</v>
+      </c>
+      <c r="X17" s="7">
+        <f>Table2[[#This Row],[Id]]-L16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4769</v>
       </c>
@@ -31794,7 +31988,7 @@
         <v>( 1, "Maine", "ME", 1, 1 ),</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M18">
         <v>21</v>
@@ -31815,6 +32009,7 @@
         <v>4650</v>
       </c>
       <c r="S18">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>21</v>
       </c>
       <c r="T18">
@@ -31825,11 +32020,19 @@
         <v>6</v>
       </c>
       <c r="V18" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 17, "Kentucky", "KY" ),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 16, "Kentucky", "KY", "KY", 21),</v>
+      </c>
+      <c r="W18" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Kentucky =&gt; All50States[16];</v>
+      </c>
+      <c r="X18" s="7">
+        <f>Table2[[#This Row],[Id]]-L17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4767</v>
       </c>
@@ -31859,7 +32062,7 @@
         <v>( 3, "Maryland", "MD", 5, 3 ),</v>
       </c>
       <c r="L19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M19">
         <v>22</v>
@@ -31880,6 +32083,7 @@
         <v>4652</v>
       </c>
       <c r="S19">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>22</v>
       </c>
       <c r="T19">
@@ -31890,11 +32094,19 @@
         <v>7</v>
       </c>
       <c r="V19" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 18, "Louisiana", "LA" ),</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 17, "Louisiana", "LA", "LA", 22),</v>
+      </c>
+      <c r="W19" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Louisiana =&gt; All50States[17];</v>
+      </c>
+      <c r="X19" s="7">
+        <f>Table2[[#This Row],[Id]]-L18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4769</v>
       </c>
@@ -31924,7 +32136,7 @@
         <v>( 1, "Massachusetts", "MA", 1, 1 ),</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M20">
         <v>25</v>
@@ -31945,6 +32157,7 @@
         <v>4654</v>
       </c>
       <c r="S20">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>23</v>
       </c>
       <c r="T20">
@@ -31955,11 +32168,19 @@
         <v>1</v>
       </c>
       <c r="V20" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 19, "Maine", "ME" ),</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 18, "Maine", "ME", "ME", 23),</v>
+      </c>
+      <c r="W20" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Maine =&gt; All50States[18];</v>
+      </c>
+      <c r="X20" s="7">
+        <f>Table2[[#This Row],[Id]]-L19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4770</v>
       </c>
@@ -31989,7 +32210,7 @@
         <v>( 2, "Michigan", "MI", 3, 2 ),</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M21">
         <v>24</v>
@@ -32010,6 +32231,7 @@
         <v>4656</v>
       </c>
       <c r="S21">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>24</v>
       </c>
       <c r="T21">
@@ -32020,11 +32242,19 @@
         <v>5</v>
       </c>
       <c r="V21" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 20, "Maryland", "MD" ),</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 19, "Maryland", "MD", "MD", 24),</v>
+      </c>
+      <c r="W21" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Maryland =&gt; All50States[19];</v>
+      </c>
+      <c r="X21" s="7">
+        <f>Table2[[#This Row],[Id]]-L20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4770</v>
       </c>
@@ -32054,7 +32284,7 @@
         <v>( 2, "Minnesota", "MN", 4, 2 ),</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M22">
         <v>23</v>
@@ -32075,6 +32305,7 @@
         <v>4658</v>
       </c>
       <c r="S22">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>25</v>
       </c>
       <c r="T22">
@@ -32085,11 +32316,19 @@
         <v>1</v>
       </c>
       <c r="V22" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 21, "Massachusetts", "MA" ),</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 20, "Massachusetts", "MA", "MA", 25),</v>
+      </c>
+      <c r="W22" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Massachusetts =&gt; All50States[20];</v>
+      </c>
+      <c r="X22" s="7">
+        <f>Table2[[#This Row],[Id]]-L21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4767</v>
       </c>
@@ -32119,7 +32358,7 @@
         <v>( 3, "Mississippi", "MS", 6, 3 ),</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M23">
         <v>26</v>
@@ -32140,6 +32379,7 @@
         <v>4660</v>
       </c>
       <c r="S23">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>26</v>
       </c>
       <c r="T23">
@@ -32150,11 +32390,19 @@
         <v>3</v>
       </c>
       <c r="V23" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 22, "Michigan", "MI" ),</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 21, "Michigan", "MI", "MI", 26),</v>
+      </c>
+      <c r="W23" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Michigan =&gt; All50States[21];</v>
+      </c>
+      <c r="X23" s="7">
+        <f>Table2[[#This Row],[Id]]-L22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4770</v>
       </c>
@@ -32184,7 +32432,7 @@
         <v>( 2, "Missouri", "MO", 4, 2 ),</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M24">
         <v>27</v>
@@ -32205,6 +32453,7 @@
         <v>4662</v>
       </c>
       <c r="S24">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>27</v>
       </c>
       <c r="T24">
@@ -32215,11 +32464,19 @@
         <v>4</v>
       </c>
       <c r="V24" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 23, "Minnesota", "MN" ),</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 22, "Minnesota", "MN", "MN", 27),</v>
+      </c>
+      <c r="W24" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Minnesota =&gt; All50States[22];</v>
+      </c>
+      <c r="X24" s="7">
+        <f>Table2[[#This Row],[Id]]-L23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4768</v>
       </c>
@@ -32249,7 +32506,7 @@
         <v>( 4, "Montana", "MT", 8, 4 ),</v>
       </c>
       <c r="L25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M25">
         <v>29</v>
@@ -32270,6 +32527,7 @@
         <v>4664</v>
       </c>
       <c r="S25">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>28</v>
       </c>
       <c r="T25">
@@ -32280,11 +32538,19 @@
         <v>6</v>
       </c>
       <c r="V25" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 24, "Mississippi", "MS" ),</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 23, "Mississippi", "MS", "MS", 28),</v>
+      </c>
+      <c r="W25" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Mississippi =&gt; All50States[23];</v>
+      </c>
+      <c r="X25" s="7">
+        <f>Table2[[#This Row],[Id]]-L24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4770</v>
       </c>
@@ -32314,7 +32580,7 @@
         <v>( 2, "Nebraska", "NE", 4, 2 ),</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M26">
         <v>28</v>
@@ -32335,6 +32601,7 @@
         <v>4666</v>
       </c>
       <c r="S26">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>29</v>
       </c>
       <c r="T26">
@@ -32345,11 +32612,19 @@
         <v>4</v>
       </c>
       <c r="V26" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 25, "Missouri", "MO" ),</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 24, "Missouri", "MO", "MO", 29),</v>
+      </c>
+      <c r="W26" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Missouri =&gt; All50States[24];</v>
+      </c>
+      <c r="X26" s="7">
+        <f>Table2[[#This Row],[Id]]-L25</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4768</v>
       </c>
@@ -32379,7 +32654,7 @@
         <v>( 4, "Nevada", "NV", 8, 4 ),</v>
       </c>
       <c r="L27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M27">
         <v>30</v>
@@ -32400,6 +32675,7 @@
         <v>4668</v>
       </c>
       <c r="S27">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>30</v>
       </c>
       <c r="T27">
@@ -32410,11 +32686,19 @@
         <v>8</v>
       </c>
       <c r="V27" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 26, "Montana", "MT" ),</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 25, "Montana", "MT", "MT", 30),</v>
+      </c>
+      <c r="W27" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Montana =&gt; All50States[25];</v>
+      </c>
+      <c r="X27" s="7">
+        <f>Table2[[#This Row],[Id]]-L26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4769</v>
       </c>
@@ -32444,7 +32728,7 @@
         <v>( 1, "New Hampshire", "NH", 1, 1 ),</v>
       </c>
       <c r="L28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M28">
         <v>31</v>
@@ -32475,11 +32759,19 @@
         <v>4</v>
       </c>
       <c r="V28" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 27, "Nebraska", "NB" ),</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 26, "Nebraska", "NB", "NE", 31),</v>
+      </c>
+      <c r="W28" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Nebraska =&gt; All50States[26];</v>
+      </c>
+      <c r="X28" s="7">
+        <f>Table2[[#This Row],[Id]]-L27</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4769</v>
       </c>
@@ -32509,7 +32801,7 @@
         <v>( 1, "New Jersey", "NJ", 2, 1 ),</v>
       </c>
       <c r="L29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M29">
         <v>37</v>
@@ -32530,6 +32822,7 @@
         <v>4672</v>
       </c>
       <c r="S29">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>32</v>
       </c>
       <c r="T29">
@@ -32540,11 +32833,19 @@
         <v>8</v>
       </c>
       <c r="V29" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 28, "Nevada", "NV" ),</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 27, "Nevada", "NV", "NV", 32),</v>
+      </c>
+      <c r="W29" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Nevada =&gt; All50States[27];</v>
+      </c>
+      <c r="X29" s="7">
+        <f>Table2[[#This Row],[Id]]-L28</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4768</v>
       </c>
@@ -32574,7 +32875,7 @@
         <v>( 4, "New Mexico", "NM", 8, 4 ),</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M30">
         <v>34</v>
@@ -32595,6 +32896,7 @@
         <v>4674</v>
       </c>
       <c r="S30">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>33</v>
       </c>
       <c r="T30">
@@ -32605,11 +32907,19 @@
         <v>1</v>
       </c>
       <c r="V30" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 29, "New Hampshire", "NH" ),</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 28, "New Hampshire", "NH", "NH", 33),</v>
+      </c>
+      <c r="W30" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State New Hampshire =&gt; All50States[28];</v>
+      </c>
+      <c r="X30" s="7">
+        <f>Table2[[#This Row],[Id]]-L29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4769</v>
       </c>
@@ -32639,7 +32949,7 @@
         <v>( 1, "New York", "NY", 2, 1 ),</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M31">
         <v>35</v>
@@ -32660,6 +32970,7 @@
         <v>4676</v>
       </c>
       <c r="S31">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>34</v>
       </c>
       <c r="T31">
@@ -32670,11 +32981,19 @@
         <v>2</v>
       </c>
       <c r="V31" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 30, "New Jersey", "NJ" ),</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 29, "New Jersey", "NJ", "NJ", 34),</v>
+      </c>
+      <c r="W31" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State New Jersey =&gt; All50States[29];</v>
+      </c>
+      <c r="X31" s="7">
+        <f>Table2[[#This Row],[Id]]-L30</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4767</v>
       </c>
@@ -32704,7 +33023,7 @@
         <v>( 3, "North Carolina", "NC", 5, 3 ),</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M32">
         <v>36</v>
@@ -32725,6 +33044,7 @@
         <v>4678</v>
       </c>
       <c r="S32">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>35</v>
       </c>
       <c r="T32">
@@ -32735,11 +33055,19 @@
         <v>8</v>
       </c>
       <c r="V32" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 31, "New Mexico", "NM" ),</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 30, "New Mexico", "NM", "NM", 35),</v>
+      </c>
+      <c r="W32" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State New Mexico =&gt; All50States[30];</v>
+      </c>
+      <c r="X32" s="7">
+        <f>Table2[[#This Row],[Id]]-L31</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4770</v>
       </c>
@@ -32769,7 +33097,7 @@
         <v>( 2, "North Dakota", "ND", 4, 2 ),</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M33">
         <v>38</v>
@@ -32790,6 +33118,7 @@
         <v>4680</v>
       </c>
       <c r="S33">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>36</v>
       </c>
       <c r="T33">
@@ -32800,11 +33129,19 @@
         <v>2</v>
       </c>
       <c r="V33" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 32, "New York", "NY" ),</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 31, "New York", "NY", "NY", 36),</v>
+      </c>
+      <c r="W33" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State New York =&gt; All50States[31];</v>
+      </c>
+      <c r="X33" s="7">
+        <f>Table2[[#This Row],[Id]]-L32</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4770</v>
       </c>
@@ -32834,7 +33171,7 @@
         <v>( 2, "Ohio", "OH", 3, 2 ),</v>
       </c>
       <c r="L34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M34">
         <v>32</v>
@@ -32855,6 +33192,7 @@
         <v>4682</v>
       </c>
       <c r="S34">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>37</v>
       </c>
       <c r="T34">
@@ -32865,11 +33203,19 @@
         <v>5</v>
       </c>
       <c r="V34" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 33, "North Carolina", "NC" ),</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 32, "North Carolina", "NC", "NC", 37),</v>
+      </c>
+      <c r="W34" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State North Carolina =&gt; All50States[32];</v>
+      </c>
+      <c r="X34" s="7">
+        <f>Table2[[#This Row],[Id]]-L33</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4767</v>
       </c>
@@ -32899,7 +33245,7 @@
         <v>( 3, "Oklahoma", "OK", 7, 3 ),</v>
       </c>
       <c r="L35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M35">
         <v>33</v>
@@ -32920,6 +33266,7 @@
         <v>4684</v>
       </c>
       <c r="S35">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>38</v>
       </c>
       <c r="T35">
@@ -32930,11 +33277,19 @@
         <v>4</v>
       </c>
       <c r="V35" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 34, "North Dakota", "ND" ),</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 33, "North Dakota", "ND", "ND", 38),</v>
+      </c>
+      <c r="W35" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State North Dakota =&gt; All50States[33];</v>
+      </c>
+      <c r="X35" s="7">
+        <f>Table2[[#This Row],[Id]]-L34</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4768</v>
       </c>
@@ -32964,7 +33319,7 @@
         <v>( 4, "Oregon", "OR", 9, 4 ),</v>
       </c>
       <c r="L36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M36">
         <v>39</v>
@@ -32985,6 +33340,7 @@
         <v>4686</v>
       </c>
       <c r="S36">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>39</v>
       </c>
       <c r="T36">
@@ -32995,11 +33351,19 @@
         <v>3</v>
       </c>
       <c r="V36" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 35, "Ohio", "OH" ),</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 34, "Ohio", "OH", "OH", 39),</v>
+      </c>
+      <c r="W36" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Ohio =&gt; All50States[34];</v>
+      </c>
+      <c r="X36" s="7">
+        <f>Table2[[#This Row],[Id]]-L35</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4769</v>
       </c>
@@ -33029,7 +33393,7 @@
         <v>( 1, "Pennsylvania", "PA", 2, 1 ),</v>
       </c>
       <c r="L37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M37">
         <v>40</v>
@@ -33050,6 +33414,7 @@
         <v>4688</v>
       </c>
       <c r="S37">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>40</v>
       </c>
       <c r="T37">
@@ -33060,11 +33425,19 @@
         <v>7</v>
       </c>
       <c r="V37" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 36, "Oklahoma", "OK" ),</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 35, "Oklahoma", "OK", "OK", 40),</v>
+      </c>
+      <c r="W37" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Oklahoma =&gt; All50States[35];</v>
+      </c>
+      <c r="X37" s="7">
+        <f>Table2[[#This Row],[Id]]-L36</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4769</v>
       </c>
@@ -33094,7 +33467,7 @@
         <v>( 1, "Rhode Island", "RI", 1, 1 ),</v>
       </c>
       <c r="L38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M38">
         <v>41</v>
@@ -33115,6 +33488,7 @@
         <v>4690</v>
       </c>
       <c r="S38">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>41</v>
       </c>
       <c r="T38">
@@ -33125,11 +33499,19 @@
         <v>9</v>
       </c>
       <c r="V38" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 37, "Oregon", "OR" ),</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 36, "Oregon", "OR", "OR", 41),</v>
+      </c>
+      <c r="W38" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Oregon =&gt; All50States[36];</v>
+      </c>
+      <c r="X38" s="7">
+        <f>Table2[[#This Row],[Id]]-L37</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>4767</v>
       </c>
@@ -33159,7 +33541,7 @@
         <v>( 3, "South Carolina", "SC", 5, 3 ),</v>
       </c>
       <c r="L39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M39">
         <v>42</v>
@@ -33180,6 +33562,7 @@
         <v>4692</v>
       </c>
       <c r="S39">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>42</v>
       </c>
       <c r="T39">
@@ -33190,11 +33573,19 @@
         <v>2</v>
       </c>
       <c r="V39" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 38, "Pennsylvania", "PA" ),</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 37, "Pennsylvania", "PA", "PA", 42),</v>
+      </c>
+      <c r="W39" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Pennsylvania =&gt; All50States[37];</v>
+      </c>
+      <c r="X39" s="7">
+        <f>Table2[[#This Row],[Id]]-L38</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4770</v>
       </c>
@@ -33224,7 +33615,7 @@
         <v>( 2, "South Dakota", "SD", 4, 2 ),</v>
       </c>
       <c r="L40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M40">
         <v>44</v>
@@ -33245,6 +33636,7 @@
         <v>4694</v>
       </c>
       <c r="S40">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>44</v>
       </c>
       <c r="T40">
@@ -33255,11 +33647,19 @@
         <v>1</v>
       </c>
       <c r="V40" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 39, "Rhode Island", "RI" ),</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 38, "Rhode Island", "RI", "RI", 44),</v>
+      </c>
+      <c r="W40" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Rhode Island =&gt; All50States[38];</v>
+      </c>
+      <c r="X40" s="7">
+        <f>Table2[[#This Row],[Id]]-L39</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4767</v>
       </c>
@@ -33289,7 +33689,7 @@
         <v>( 3, "Tennessee", "TN", 6, 3 ),</v>
       </c>
       <c r="L41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M41">
         <v>45</v>
@@ -33310,6 +33710,7 @@
         <v>4696</v>
       </c>
       <c r="S41">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>45</v>
       </c>
       <c r="T41">
@@ -33320,11 +33721,19 @@
         <v>5</v>
       </c>
       <c r="V41" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 40, "South Carolina", "SC" ),</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 39, "South Carolina", "SC", "SC", 45),</v>
+      </c>
+      <c r="W41" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State South Carolina =&gt; All50States[39];</v>
+      </c>
+      <c r="X41" s="7">
+        <f>Table2[[#This Row],[Id]]-L40</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>4767</v>
       </c>
@@ -33354,7 +33763,7 @@
         <v>( 3, "Texas", "TX", 7, 3 ),</v>
       </c>
       <c r="L42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M42">
         <v>46</v>
@@ -33375,6 +33784,7 @@
         <v>4698</v>
       </c>
       <c r="S42">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>46</v>
       </c>
       <c r="T42">
@@ -33385,11 +33795,19 @@
         <v>4</v>
       </c>
       <c r="V42" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 41, "South Dakota", "SD" ),</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 40, "South Dakota", "SD", "SD", 46),</v>
+      </c>
+      <c r="W42" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State South Dakota =&gt; All50States[40];</v>
+      </c>
+      <c r="X42" s="7">
+        <f>Table2[[#This Row],[Id]]-L41</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4768</v>
       </c>
@@ -33419,7 +33837,7 @@
         <v>( 4, "Utah", "UT", 8, 4 ),</v>
       </c>
       <c r="L43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M43">
         <v>47</v>
@@ -33440,6 +33858,7 @@
         <v>4700</v>
       </c>
       <c r="S43">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>47</v>
       </c>
       <c r="T43">
@@ -33450,11 +33869,19 @@
         <v>6</v>
       </c>
       <c r="V43" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 42, "Tennessee", "TN" ),</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 41, "Tennessee", "TN", "TN", 47),</v>
+      </c>
+      <c r="W43" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Tennessee =&gt; All50States[41];</v>
+      </c>
+      <c r="X43" s="7">
+        <f>Table2[[#This Row],[Id]]-L42</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>4769</v>
       </c>
@@ -33484,7 +33911,7 @@
         <v>( 1, "Vermont", "VT", 1, 1 ),</v>
       </c>
       <c r="L44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M44">
         <v>48</v>
@@ -33505,6 +33932,7 @@
         <v>4702</v>
       </c>
       <c r="S44">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>48</v>
       </c>
       <c r="T44">
@@ -33515,11 +33943,19 @@
         <v>7</v>
       </c>
       <c r="V44" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 43, "Texas", "TX" ),</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 42, "Texas", "TX", "TX", 48),</v>
+      </c>
+      <c r="W44" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Texas =&gt; All50States[42];</v>
+      </c>
+      <c r="X44" s="7">
+        <f>Table2[[#This Row],[Id]]-L43</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4767</v>
       </c>
@@ -33549,7 +33985,7 @@
         <v>( 3, "Virginia", "VA", 5, 3 ),</v>
       </c>
       <c r="L45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M45">
         <v>49</v>
@@ -33570,6 +34006,7 @@
         <v>4704</v>
       </c>
       <c r="S45">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>49</v>
       </c>
       <c r="T45">
@@ -33580,11 +34017,19 @@
         <v>8</v>
       </c>
       <c r="V45" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 44, "Utah", "UT" ),</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 43, "Utah", "UT", "UT", 49),</v>
+      </c>
+      <c r="W45" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Utah =&gt; All50States[43];</v>
+      </c>
+      <c r="X45" s="7">
+        <f>Table2[[#This Row],[Id]]-L44</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>4768</v>
       </c>
@@ -33614,7 +34059,7 @@
         <v>( 4, "Washington", "WA", 9, 4 ),</v>
       </c>
       <c r="L46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M46">
         <v>52</v>
@@ -33635,6 +34080,7 @@
         <v>4706</v>
       </c>
       <c r="S46">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>50</v>
       </c>
       <c r="T46">
@@ -33645,11 +34091,19 @@
         <v>1</v>
       </c>
       <c r="V46" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 45, "Vermont", "VT" ),</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 44, "Vermont", "VT", "VT", 50),</v>
+      </c>
+      <c r="W46" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Vermont =&gt; All50States[44];</v>
+      </c>
+      <c r="X46" s="7">
+        <f>Table2[[#This Row],[Id]]-L45</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>4767</v>
       </c>
@@ -33679,7 +34133,7 @@
         <v>( 3, "West Virginia", "WV", 5, 3 ),</v>
       </c>
       <c r="L47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M47">
         <v>51</v>
@@ -33700,6 +34154,7 @@
         <v>4708</v>
       </c>
       <c r="S47">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>51</v>
       </c>
       <c r="T47">
@@ -33710,11 +34165,19 @@
         <v>5</v>
       </c>
       <c r="V47" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 46, "Virginia", "VA" ),</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 45, "Virginia", "VA", "VA", 51),</v>
+      </c>
+      <c r="W47" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Virginia =&gt; All50States[45];</v>
+      </c>
+      <c r="X47" s="7">
+        <f>Table2[[#This Row],[Id]]-L46</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4770</v>
       </c>
@@ -33744,7 +34207,7 @@
         <v>( 2, "Wisconsin", "WI", 3, 2 ),</v>
       </c>
       <c r="L48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M48">
         <v>53</v>
@@ -33765,6 +34228,7 @@
         <v>4710</v>
       </c>
       <c r="S48">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>53</v>
       </c>
       <c r="T48">
@@ -33775,11 +34239,19 @@
         <v>9</v>
       </c>
       <c r="V48" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 47, "Washington", "WA" ),</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 46, "Washington", "WA", "WA", 53),</v>
+      </c>
+      <c r="W48" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Washington =&gt; All50States[46];</v>
+      </c>
+      <c r="X48" s="7">
+        <f>Table2[[#This Row],[Id]]-L47</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4768</v>
       </c>
@@ -33809,7 +34281,7 @@
         <v>( 4, "Wyoming", "WY", 8, 4 ),</v>
       </c>
       <c r="L49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M49">
         <v>55</v>
@@ -33830,6 +34302,7 @@
         <v>4712</v>
       </c>
       <c r="S49">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>54</v>
       </c>
       <c r="T49">
@@ -33840,11 +34313,19 @@
         <v>5</v>
       </c>
       <c r="V49" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 48, "West Virginia", "WV" ),</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 47, "West Virginia", "WV", "WV", 54),</v>
+      </c>
+      <c r="W49" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State West Virginia =&gt; All50States[47];</v>
+      </c>
+      <c r="X49" s="7">
+        <f>Table2[[#This Row],[Id]]-L48</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4768</v>
       </c>
@@ -33874,7 +34355,7 @@
         <v>( 4, "Alaska", "AK", 9, 4 ),</v>
       </c>
       <c r="L50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M50">
         <v>54</v>
@@ -33895,6 +34376,7 @@
         <v>4714</v>
       </c>
       <c r="S50">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>55</v>
       </c>
       <c r="T50">
@@ -33905,11 +34387,19 @@
         <v>3</v>
       </c>
       <c r="V50" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 49, "Wisconsin", "WI" ),</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 48, "Wisconsin", "WI", "WI", 55),</v>
+      </c>
+      <c r="W50" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Wisconsin =&gt; All50States[48];</v>
+      </c>
+      <c r="X50" s="7">
+        <f>Table2[[#This Row],[Id]]-L49</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>4768</v>
       </c>
@@ -33939,7 +34429,7 @@
         <v>( 4, "Hawaii", "HI", 9, 4 ),</v>
       </c>
       <c r="L51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M51">
         <v>56</v>
@@ -33960,6 +34450,7 @@
         <v>4716</v>
       </c>
       <c r="S51">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>56</v>
       </c>
       <c r="T51">
@@ -33970,11 +34461,19 @@
         <v>8</v>
       </c>
       <c r="V51" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 50, "Wyoming", "WY" ),</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 49, "Wyoming", "WY", "WY", 56),</v>
+      </c>
+      <c r="W51" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Wyoming =&gt; All50States[49];</v>
+      </c>
+      <c r="X51" s="7">
+        <f>Table2[[#This Row],[Id]]-L50</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4771</v>
       </c>
@@ -34004,7 +34503,7 @@
         <v>( 0, "Canal Zone", "CZ", 0, 0 ),</v>
       </c>
       <c r="L52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M52">
         <v>4</v>
@@ -34024,8 +34523,9 @@
       <c r="R52" t="s">
         <v>4720</v>
       </c>
-      <c r="S52">
-        <v>60</v>
+      <c r="S52" t="e">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="T52">
         <v>12</v>
@@ -34034,12 +34534,20 @@
         <f>VLOOKUP(Table2[[#This Row],[STATE_NAME]],Table1[[Name]:[Region]],6,0)</f>
         <v>0</v>
       </c>
-      <c r="V52" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 51, "American Samoa", "AS" ),</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V52" t="e">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W52" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State American Samoa =&gt; All50States[50];</v>
+      </c>
+      <c r="X52" s="7">
+        <f>Table2[[#This Row],[Id]]-L51</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4771</v>
       </c>
@@ -34069,7 +34577,7 @@
         <v>( 0, "Puerto Rico", "PR", 0, 0 ),</v>
       </c>
       <c r="L53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M53">
         <v>50</v>
@@ -34089,8 +34597,9 @@
       <c r="R53" t="s">
         <v>4722</v>
       </c>
-      <c r="S53">
-        <v>78</v>
+      <c r="S53" t="e">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="T53">
         <v>12</v>
@@ -34099,12 +34608,20 @@
         <f>VLOOKUP(Table2[[#This Row],[STATE_NAME]],Table1[[Name]:[Region]],6,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="V53" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 52, "U.S. Virgin Islands", "VI" ),</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V53" t="e">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W53" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State U.S. Virgin Islands =&gt; All50States[51];</v>
+      </c>
+      <c r="X53" s="7">
+        <f>Table2[[#This Row],[Id]]-L52</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>4771</v>
       </c>
@@ -34134,7 +34651,7 @@
         <v>( 0, "American Samoa", "AS", 0, 0 ),</v>
       </c>
       <c r="L54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M54">
         <v>43</v>
@@ -34155,6 +34672,7 @@
         <v>4723</v>
       </c>
       <c r="S54">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>72</v>
       </c>
       <c r="T54">
@@ -34165,11 +34683,19 @@
         <v>0</v>
       </c>
       <c r="V54" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 53, "Puerto Rico", "PR" ),</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 52, "Puerto Rico", "PR", "PR", 72),</v>
+      </c>
+      <c r="W54" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Puerto Rico =&gt; All50States[52];</v>
+      </c>
+      <c r="X54" s="7">
+        <f>Table2[[#This Row],[Id]]-L53</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>4771</v>
       </c>
@@ -34199,7 +34725,7 @@
         <v>( 0, "Guam", "GM", 0, 0 ),</v>
       </c>
       <c r="L55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M55">
         <v>10</v>
@@ -34220,6 +34746,7 @@
         <v>4735</v>
       </c>
       <c r="S55">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
         <v>11</v>
       </c>
       <c r="T55">
@@ -34230,11 +34757,19 @@
         <v>#N/A</v>
       </c>
       <c r="V55" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 54, "District of Columbia", "DC" ),</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>new State( 53, "District of Columbia", "DC", "DC", 11),</v>
+      </c>
+      <c r="W55" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State District of Columbia =&gt; All50States[53];</v>
+      </c>
+      <c r="X55" s="7">
+        <f>Table2[[#This Row],[Id]]-L54</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>4771</v>
       </c>
@@ -34264,7 +34799,7 @@
         <v>( 0, "Virgin Islands", "VI", 0, 0 ),</v>
       </c>
       <c r="L56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M56">
         <v>99</v>
@@ -34284,8 +34819,9 @@
       <c r="R56" t="s">
         <v>4901</v>
       </c>
-      <c r="S56">
-        <v>99</v>
+      <c r="S56" t="e">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="T56">
         <v>12</v>
@@ -34294,12 +34830,20 @@
         <f>VLOOKUP(Table2[[#This Row],[STATE_NAME]],Table1[[Name]:[Region]],6,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="V56" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 55, "Other", "OT" ),</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V56" t="e">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W56" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Other =&gt; All50States[54];</v>
+      </c>
+      <c r="X56" s="7">
+        <f>Table2[[#This Row],[Id]]-L55</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>4767</v>
       </c>
@@ -34329,7 +34873,7 @@
         <v>( 3, "Distric of Columbia", "DC", 5, 3 ),</v>
       </c>
       <c r="L57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M57">
         <v>14</v>
@@ -34349,8 +34893,9 @@
       <c r="R57" t="s">
         <v>4895</v>
       </c>
-      <c r="S57">
-        <v>66</v>
+      <c r="S57" t="e">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="T57">
         <v>12</v>
@@ -34359,14 +34904,22 @@
         <f>VLOOKUP(Table2[[#This Row],[STATE_NAME]],Table1[[Name]:[Region]],6,0)</f>
         <v>0</v>
       </c>
-      <c r="V57" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 56, "Guam", "GM" ),</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V57" t="e">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W57" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Guam =&gt; All50States[55];</v>
+      </c>
+      <c r="X57" s="7">
+        <f>Table2[[#This Row],[Id]]-L56</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="L58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M58">
         <v>9</v>
@@ -34385,6 +34938,10 @@
       </c>
       <c r="R58" t="s">
         <v>4718</v>
+      </c>
+      <c r="S58" t="e">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="T58">
         <v>12</v>
@@ -34393,14 +34950,22 @@
         <f>VLOOKUP(Table2[[#This Row],[STATE_NAME]],Table1[[Name]:[Region]],6,0)</f>
         <v>0</v>
       </c>
-      <c r="V58" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 57, "Canal Zone", "CZ" ),</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V58" t="e">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W58" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Canal Zone =&gt; All50States[56];</v>
+      </c>
+      <c r="X58" s="7">
+        <f>Table2[[#This Row],[Id]]-L57</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="L59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M59">
         <v>57</v>
@@ -34420,8 +34985,9 @@
       <c r="R59" t="s">
         <v>4899</v>
       </c>
-      <c r="S59">
-        <v>69</v>
+      <c r="S59" t="e">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="T59">
         <v>12</v>
@@ -34430,14 +34996,22 @@
         <f>VLOOKUP(Table2[[#This Row],[STATE_NAME]],Table1[[Name]:[Region]],6,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="V59" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 58, "Mariana Islands", "MP" ),</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V59" t="e">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W59" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Mariana Islands =&gt; All50States[57];</v>
+      </c>
+      <c r="X59" s="7">
+        <f>Table2[[#This Row],[Id]]-L58</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="L60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M60">
         <v>98</v>
@@ -34456,6 +35030,10 @@
       </c>
       <c r="R60" t="s">
         <v>4894</v>
+      </c>
+      <c r="S60" t="e">
+        <f>VLOOKUP(Table2[[#This Row],[STATE_ABBR]],[1]!Table1[#Data],2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="T60">
         <v>12</v>
@@ -34464,17 +35042,26 @@
         <f>VLOOKUP(Table2[[#This Row],[STATE_NAME]],Table1[[Name]:[Region]],6,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="V60" t="str">
-        <f>"( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;" ),"</f>
-        <v>( 59, "Federal", "FS" ),</v>
+      <c r="V60" t="e">
+        <f>"new State( " &amp;Table2[[#This Row],[Id]]&amp;", """&amp;Table2[[#This Row],[STATE_NAME]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_ABBR]]&amp;""""&amp;", "&amp;""""&amp;Table2[[#This Row],[STATE_POSTAL_ABBR]]&amp;""""&amp;", "&amp;Table2[[#This Row],[STATE_FIPS_CODE]]&amp;"),"</f>
+        <v>#N/A</v>
+      </c>
+      <c r="W60" t="str">
+        <f>"public static State " &amp; Table2[[#This Row],[STATE_NAME]] &amp; " =&gt; All50States[" &amp; Table2[[#This Row],[Id]] &amp; "];"</f>
+        <v>public static State Federal =&gt; All50States[58];</v>
+      </c>
+      <c r="X60" s="7">
+        <f>Table2[[#This Row],[Id]]-L59</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="H58:H1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
